--- a/Texts/Город Сокровищ/Гильдия Виглитаффа/Доска вопросов и ответов.xlsx
+++ b/Texts/Город Сокровищ/Гильдия Виглитаффа/Доска вопросов и ответов.xlsx
@@ -72,12 +72,6 @@
     <t>The Federation collects dues from guilds\nnationwide for producing items and badges\nused by exploration teams.</t>
   </si>
   <si>
-    <t>Федерация собирает налоги с гильдий по\nвсему миру за производство снаряжения\nи значков для команд исследователей.</t>
-  </si>
-  <si>
-    <t>Õåäåñàøéÿ òïáéñàåó îàìïãé ò ãéìûäéê ðï\nâòåíô íéñô èà ðñïéèâïäòóâï òîàñÿçåîéÿ\né èîàœëïâ äìÿ ëïíàîä éòòìåäïâàóåìåê.</t>
-  </si>
-  <si>
     <t>The Federation also operates a number of\nservices for explorers. It\'s an indispensable\norganization for explorers!</t>
   </si>
   <si>
@@ -447,6 +441,12 @@
   </si>
   <si>
     <t xml:space="preserve">Ï8: Ðïëåíïîú ðïäñàèäåìÿýóòÿ îà óéðú,\nóàëéå ëàë Ïãïîû, Âïäà é Óñàâà. Íîïãéå\nÐïëåíïîú íïãôó éíåóû òñàèô äâà óéðà. </t>
+  </si>
+  <si>
+    <t>Федерация собирает налоги с гильдий по\nвсему миру для производства снаряжения\nи значков для команд исследователей.</t>
+  </si>
+  <si>
+    <t>Õåäåñàøéÿ òïáéñàåó îàìïãé ò ãéìûäéê ðï\nâòåíô íéñô äìÿ ðñïéèâïäòóâà òîàñÿçåîéÿ\né èîàœëïâ äìÿ ëïíàîä éòòìåäïâàóåìåê.</t>
   </si>
 </sst>
 </file>
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1003,10 +1003,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1015,13 +1015,13 @@
         <v>28</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -1030,13 +1030,13 @@
         <v>31</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1045,13 +1045,13 @@
         <v>34</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1060,13 +1060,13 @@
         <v>39</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -1075,13 +1075,13 @@
         <v>42</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1090,13 +1090,13 @@
         <v>45</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1105,13 +1105,13 @@
         <v>50</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -1120,13 +1120,13 @@
         <v>53</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -1135,13 +1135,13 @@
         <v>56</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -1150,13 +1150,13 @@
         <v>59</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -1165,13 +1165,13 @@
         <v>62</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1180,13 +1180,13 @@
         <v>65</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1195,13 +1195,13 @@
         <v>70</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1210,13 +1210,13 @@
         <v>73</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1225,13 +1225,13 @@
         <v>76</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1240,13 +1240,13 @@
         <v>79</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1255,13 +1255,13 @@
         <v>82</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -1270,13 +1270,13 @@
         <v>85</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1285,13 +1285,13 @@
         <v>88</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1300,13 +1300,13 @@
         <v>93</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1315,13 +1315,13 @@
         <v>96</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -1330,13 +1330,13 @@
         <v>99</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -1345,13 +1345,13 @@
         <v>102</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1360,13 +1360,13 @@
         <v>105</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1375,13 +1375,13 @@
         <v>108</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -1390,13 +1390,13 @@
         <v>111</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1405,13 +1405,13 @@
         <v>114</v>
       </c>
       <c r="C32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1420,13 +1420,13 @@
         <v>119</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -1435,13 +1435,13 @@
         <v>122</v>
       </c>
       <c r="C34" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -1450,13 +1450,13 @@
         <v>125</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -1465,13 +1465,13 @@
         <v>128</v>
       </c>
       <c r="C36" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1480,13 +1480,13 @@
         <v>131</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1495,13 +1495,13 @@
         <v>134</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1510,13 +1510,13 @@
         <v>137</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1525,13 +1525,13 @@
         <v>142</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -1540,13 +1540,13 @@
         <v>145</v>
       </c>
       <c r="C41" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E41" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1555,13 +1555,13 @@
         <v>148</v>
       </c>
       <c r="C42" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1570,13 +1570,13 @@
         <v>151</v>
       </c>
       <c r="C43" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>117</v>
-      </c>
       <c r="E43" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -1585,13 +1585,13 @@
         <v>154</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -1600,13 +1600,13 @@
         <v>157</v>
       </c>
       <c r="C45" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1615,13 +1615,13 @@
         <v>160</v>
       </c>
       <c r="C46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1630,13 +1630,13 @@
         <v>165</v>
       </c>
       <c r="C47" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1645,13 +1645,13 @@
         <v>168</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -1660,13 +1660,13 @@
         <v>171</v>
       </c>
       <c r="C49" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1675,13 +1675,13 @@
         <v>174</v>
       </c>
       <c r="C50" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1690,13 +1690,13 @@
         <v>177</v>
       </c>
       <c r="C51" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="51" x14ac:dyDescent="0.3">
@@ -1705,13 +1705,13 @@
         <v>180</v>
       </c>
       <c r="C52" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E52" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1720,13 +1720,13 @@
         <v>183</v>
       </c>
       <c r="C53" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
